--- a/Налоговые иждивенцы.xlsx
+++ b/Налоговые иждивенцы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\DA_labs\DA_Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,10 +87,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,8 +374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,17 +384,17 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -426,13 +426,13 @@
       <c r="B4" s="3">
         <v>384.57</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
